--- a/data/MA_Neurobiology_Survey_final_clean.xlsx
+++ b/data/MA_Neurobiology_Survey_final_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\lnCVR project (10+ reanalyses)\AnimalScience_lnCVR\AnimalScience_lnCVR\proposal\survey\survey_neurobiology_MA-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D161B5D3-33EB-4F20-BB9E-9269084E2D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB795EA6-F37C-4DE4-8FC2-2C7F0080C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MA_Neurobiology_Survey_final" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MA_Neurobiology_Survey_final!$A$2:$AG$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MA_Neurobiology_Survey_final!$H$1:$H$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="605">
   <si>
     <t>Paper's title</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>raw mean</t>
-  </si>
-  <si>
-    <t>"Amantadine effect was defined as the mean total dyskinesia score on amantadine minus the mean total dyskinesia score on vehicle. "</t>
   </si>
   <si>
     <t>"The meta-analysis generated estimates from both fixed- and random-effects models."</t>
@@ -1607,9 +1604,6 @@
     <t>If BBB scores were reported for each hind leg, an average value was calculated. In studies including both a placebo group and a no-treatment group, the two mean BBB scores and SDs were averaged, respectively, and the group sizes were added up</t>
   </si>
   <si>
-    <t>the difference in BBB score means between MSC group and control at maximal follow-up</t>
-  </si>
-  <si>
     <t>In case multiple behavioural tests were used to assess memory retention in the same group of animals, outcomes obtained by means of the Morris water maze (MWM) (Morris, 1984) were included in the main analysis. This task was selected since it is the most-often used in our sample of studies</t>
   </si>
   <si>
@@ -1705,9 +1699,6 @@
   </si>
   <si>
     <t>If the same group of animals was assessed using several neurobehavioral scores or structural outcomes in 1 study, we combined these using fixed effects  metaanalysis and used this pooled measure for further analysis</t>
-  </si>
-  <si>
-    <t>mean difference in histological fibrosis stage in the interventional group compared to control/placebo</t>
   </si>
   <si>
     <t>metafor; meta; dmetar</t>
@@ -2736,9 +2727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2788,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2866,18 +2857,18 @@
         <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -2886,7 +2877,7 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
@@ -2896,18 +2887,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
@@ -2918,13 +2909,13 @@
         <v>32</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T2" s="1">
         <v>53</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>41</v>
@@ -2934,13 +2925,13 @@
         <v>76</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>45</v>
@@ -2957,10 +2948,10 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2969,7 +2960,7 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
@@ -2979,7 +2970,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>36</v>
@@ -2990,26 +2981,26 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R3" s="1">
         <v>14</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>41</v>
@@ -3019,46 +3010,46 @@
         <v>76</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D4" s="1">
         <v>2013</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -3068,7 +3059,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
@@ -3104,7 +3095,7 @@
         <v>76</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>44</v>
@@ -3119,10 +3110,10 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -3210,19 +3201,19 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1">
         <v>2017</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -3232,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>53</v>
@@ -3243,7 +3234,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="3" t="s">
@@ -3254,13 +3245,13 @@
         <v>7</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T6" s="3">
         <v>9</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>41</v>
@@ -3274,13 +3265,13 @@
         <v>44</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>88</v>
@@ -3347,7 +3338,7 @@
         <v>94</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>95</v>
@@ -3368,10 +3359,10 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3380,17 +3371,17 @@
         <v>2016</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>53</v>
@@ -3400,19 +3391,19 @@
         <v>37</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R8" s="1">
         <v>19</v>
@@ -3430,20 +3421,20 @@
         <v>42</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
@@ -3453,19 +3444,19 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D9" s="1">
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -3475,39 +3466,39 @@
         <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="T9" s="3">
         <v>14</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>41</v>
@@ -3517,39 +3508,39 @@
         <v>42</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>51</v>
@@ -3558,7 +3549,7 @@
         <v>2018</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -3568,25 +3559,25 @@
         <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>39</v>
@@ -3596,13 +3587,13 @@
         <v>90</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T10" s="1">
         <v>1009</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>41</v>
@@ -3617,30 +3608,30 @@
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>51</v>
@@ -3649,7 +3640,7 @@
         <v>2019</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -3659,10 +3650,10 @@
         <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
@@ -3670,7 +3661,7 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
@@ -3702,22 +3693,22 @@
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>73</v>
@@ -3726,7 +3717,7 @@
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -3736,31 +3727,31 @@
         <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="R12" s="1">
         <v>120</v>
@@ -3770,7 +3761,7 @@
         <v>232</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>41</v>
@@ -3780,19 +3771,19 @@
         <v>42</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>47</v>
@@ -3805,10 +3796,10 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
@@ -3817,7 +3808,7 @@
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
@@ -3827,7 +3818,7 @@
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
@@ -3845,19 +3836,19 @@
         <v>39</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R13" s="1">
         <v>8</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="T13" s="1">
         <v>10</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>41</v>
@@ -3888,19 +3879,19 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D14" s="1">
         <v>2015</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>34</v>
@@ -3910,7 +3901,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
@@ -3921,26 +3912,26 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R14" s="1">
         <v>12</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T14" s="1">
         <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>41</v>
@@ -3950,19 +3941,19 @@
         <v>42</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>47</v>
@@ -3972,15 +3963,15 @@
         <v>80</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>51</v>
@@ -3989,13 +3980,13 @@
         <v>2019</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>42</v>
@@ -4007,7 +3998,7 @@
         <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>42</v>
@@ -4022,7 +4013,7 @@
         <v>69</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>69</v>
@@ -4073,15 +4064,15 @@
         <v>42</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
@@ -4090,7 +4081,7 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -4100,10 +4091,10 @@
         <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
@@ -4111,26 +4102,26 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R16" s="3">
         <v>29</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T16" s="3">
         <v>183</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>41</v>
@@ -4140,7 +4131,7 @@
         <v>76</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>77</v>
@@ -4150,7 +4141,7 @@
         <v>45</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>47</v>
@@ -4160,24 +4151,24 @@
         <v>80</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D17" s="1">
         <v>2019</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -4187,10 +4178,10 @@
         <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
@@ -4198,14 +4189,14 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="R17" s="1">
         <v>337</v>
@@ -4223,17 +4214,17 @@
         <v>76</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>96</v>
@@ -4243,15 +4234,15 @@
         <v>42</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
@@ -4260,17 +4251,17 @@
         <v>2013</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>36</v>
@@ -4281,7 +4272,7 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
@@ -4292,13 +4283,13 @@
         <v>32</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="T18" s="1">
         <v>56</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>41</v>
@@ -4308,7 +4299,7 @@
         <v>94</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>44</v>
@@ -4319,123 +4310,123 @@
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D19" s="1">
         <v>2020</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R19" s="1">
         <v>15</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -4444,7 +4435,7 @@
         <v>2016</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>34</v>
@@ -4463,28 +4454,28 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R20" s="1">
         <v>8</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T20" s="1">
         <v>29</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>41</v>
@@ -4495,16 +4486,16 @@
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="AC20" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>47</v>
@@ -4514,15 +4505,15 @@
         <v>42</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -4531,7 +4522,7 @@
         <v>2016</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
@@ -4550,26 +4541,26 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R21" s="1">
         <v>60</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T21" s="1">
         <v>216</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>41</v>
@@ -4597,15 +4588,15 @@
         <v>80</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>84</v>
@@ -4614,7 +4605,7 @@
         <v>2014</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>34</v>
@@ -4624,10 +4615,10 @@
         <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
@@ -4644,19 +4635,19 @@
         <v>39</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R22" s="3">
         <v>35</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T22" s="1">
         <v>107</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>41</v>
@@ -4667,16 +4658,16 @@
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>96</v>
@@ -4686,15 +4677,15 @@
         <v>42</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -4703,7 +4694,7 @@
         <v>2015</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>34</v>
@@ -4713,7 +4704,7 @@
         <v>86</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>87</v>
@@ -4748,13 +4739,13 @@
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1" t="s">
@@ -4768,19 +4759,19 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D24" s="1">
         <v>2011</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
@@ -4791,7 +4782,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
@@ -4802,19 +4793,19 @@
         <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R24" s="1">
         <v>88</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T24" s="1">
         <v>151</v>
@@ -4828,51 +4819,51 @@
         <v>76</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>88</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="D25" s="1">
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -4956,10 +4947,10 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
@@ -4968,10 +4959,10 @@
         <v>2014</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>69</v>
@@ -5001,7 +4992,7 @@
         <v>69</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>69</v>
@@ -5057,10 +5048,10 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -5069,7 +5060,7 @@
         <v>2012</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
@@ -5091,7 +5082,7 @@
         <v>75</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>39</v>
@@ -5101,13 +5092,13 @@
         <v>10</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T27" s="1">
         <v>14</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>41</v>
@@ -5117,37 +5108,37 @@
         <v>42</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>51</v>
@@ -5156,7 +5147,7 @@
         <v>2019</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>68</v>
@@ -5166,7 +5157,7 @@
         <v>42</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>42</v>
@@ -5175,7 +5166,7 @@
         <v>69</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>69</v>
@@ -5190,7 +5181,7 @@
         <v>56</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="R28" s="3">
         <v>61</v>
@@ -5241,19 +5232,19 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D29" s="1">
         <v>2016</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
@@ -5279,19 +5270,19 @@
         <v>39</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R29" s="3">
         <v>16</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T29" s="3">
         <v>29</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -5301,26 +5292,26 @@
         <v>76</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AC29" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG29" s="1"/>
     </row>
@@ -5417,29 +5408,29 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1">
         <v>2020</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>36</v>
@@ -5450,20 +5441,20 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R31" s="1">
         <v>414</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T31" s="1">
         <v>603</v>
@@ -5477,19 +5468,19 @@
         <v>76</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA31" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AC31" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>96</v>
@@ -5499,24 +5490,24 @@
         <v>80</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D32" s="1">
         <v>2020</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
@@ -5526,7 +5517,7 @@
         <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>87</v>
@@ -5548,13 +5539,13 @@
         <v>47</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T32" s="1">
         <v>95</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>41</v>
@@ -5569,10 +5560,10 @@
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AD32" s="1" t="s">
         <v>96</v>
@@ -5660,10 +5651,10 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>51</v>
@@ -5672,7 +5663,7 @@
         <v>2018</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>34</v>
@@ -5682,29 +5673,29 @@
         <v>35</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R34" s="1">
         <v>50</v>
@@ -5722,7 +5713,7 @@
         <v>94</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Z34" s="3" t="s">
         <v>95</v>
@@ -5732,137 +5723,137 @@
         <v>45</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D35" s="1">
         <v>2021</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>87</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R35" s="3">
         <v>31</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG35" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D36" s="1">
         <v>2018</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -5888,7 +5879,7 @@
         <v>56</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R36" s="1">
         <v>15</v>
@@ -5902,7 +5893,7 @@
         <v>42</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>42</v>
@@ -5924,15 +5915,15 @@
         <v>80</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>51</v>
@@ -5941,10 +5932,10 @@
         <v>2018</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>69</v>
@@ -5972,7 +5963,7 @@
         <v>69</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>69</v>
@@ -6028,10 +6019,10 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -6040,7 +6031,7 @@
         <v>2015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
@@ -6059,14 +6050,14 @@
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R38" s="1">
         <v>27</v>
@@ -6084,37 +6075,37 @@
         <v>76</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Z38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB38" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AA38" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AC38" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AD38" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>51</v>
@@ -6123,7 +6114,7 @@
         <v>2021</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
@@ -6133,7 +6124,7 @@
         <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
@@ -6143,7 +6134,7 @@
         <v>42</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>38</v>
@@ -6153,19 +6144,19 @@
         <v>39</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R39" s="1">
         <v>6</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T39" s="1">
         <v>17</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>41</v>
@@ -6193,15 +6184,15 @@
         <v>80</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>51</v>
@@ -6210,7 +6201,7 @@
         <v>2020</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
@@ -6220,10 +6211,10 @@
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
@@ -6238,7 +6229,7 @@
         <v>39</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R40" s="1">
         <v>71</v>
@@ -6261,47 +6252,47 @@
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D41" s="1">
         <v>2016</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>87</v>
@@ -6311,7 +6302,7 @@
         <v>37</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>38</v>
@@ -6337,7 +6328,7 @@
         <v>94</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>95</v>
@@ -6358,10 +6349,10 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>51</v>
@@ -6370,13 +6361,13 @@
         <v>2021</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>42</v>
@@ -6395,7 +6386,7 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
@@ -6433,10 +6424,10 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
@@ -6445,7 +6436,7 @@
         <v>2019</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>34</v>
@@ -6464,7 +6455,7 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>55</v>
@@ -6473,7 +6464,7 @@
         <v>39</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R43" s="1">
         <v>22</v>
@@ -6491,19 +6482,19 @@
         <v>76</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Z43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AA43" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AC43" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AD43" s="1" t="s">
         <v>47</v>
@@ -6516,61 +6507,61 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" s="1">
         <v>2020</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R44" s="3">
         <v>4</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>59</v>
@@ -6580,146 +6571,146 @@
         <v>42</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D45" s="1">
         <v>2017</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
@@ -6728,7 +6719,7 @@
         <v>2021</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>34</v>
@@ -6738,7 +6729,7 @@
         <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>87</v>
@@ -6756,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R46" s="1">
         <v>11</v>
@@ -6789,16 +6780,16 @@
       </c>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -6807,7 +6798,7 @@
         <v>2011</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -6821,16 +6812,16 @@
         <v>87</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
@@ -6853,7 +6844,7 @@
         <v>76</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>44</v>
@@ -6874,19 +6865,19 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1">
         <v>2020</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -6896,7 +6887,7 @@
         <v>42</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>36</v>
@@ -6906,17 +6897,17 @@
         <v>37</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="R48" s="1">
         <v>43</v>
@@ -6940,33 +6931,33 @@
         <v>44</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>51</v>
@@ -6975,7 +6966,7 @@
         <v>2021</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -6985,25 +6976,25 @@
         <v>42</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R49" s="1">
         <v>23</v>
@@ -7039,15 +7030,15 @@
         <v>80</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -7056,7 +7047,7 @@
         <v>2021</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -7066,7 +7057,7 @@
         <v>42</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>87</v>
@@ -7077,11 +7068,11 @@
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
@@ -7096,54 +7087,54 @@
         <v>42</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X50" s="3" t="s">
         <v>76</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD50" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1">
         <v>2018</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -7153,7 +7144,7 @@
         <v>35</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>36</v>
@@ -7171,7 +7162,7 @@
         <v>39</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R51" s="3">
         <v>8</v>
@@ -7186,40 +7177,40 @@
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD51" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -7228,7 +7219,7 @@
         <v>2019</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -7247,7 +7238,7 @@
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>55</v>
@@ -7256,7 +7247,7 @@
         <v>39</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R52" s="1">
         <v>9</v>
@@ -7270,7 +7261,7 @@
         <v>41</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>42</v>
@@ -7297,10 +7288,10 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>51</v>
@@ -7309,7 +7300,7 @@
         <v>2021</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -7331,13 +7322,13 @@
         <v>38</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R53" s="1">
         <v>21</v>
@@ -7355,16 +7346,16 @@
         <v>76</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="Z53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB53" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="AC53" s="4"/>
       <c r="AD53" s="1" t="s">
@@ -7378,37 +7369,37 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="1">
         <v>2016</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>42</v>
@@ -7418,13 +7409,13 @@
         <v>42</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>59</v>
@@ -7434,51 +7425,51 @@
         <v>59</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>51</v>
@@ -7487,7 +7478,7 @@
         <v>2020</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -7497,10 +7488,10 @@
         <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
@@ -7515,7 +7506,7 @@
         <v>39</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R55" s="1">
         <v>20</v>
@@ -7538,10 +7529,10 @@
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AD55" s="1" t="s">
         <v>47</v>
@@ -7551,15 +7542,15 @@
         <v>80</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -7568,7 +7559,7 @@
         <v>2013</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -7578,7 +7569,7 @@
         <v>42</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>36</v>
@@ -7593,10 +7584,10 @@
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>59</v>
@@ -7610,41 +7601,41 @@
         <v>42</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -7653,7 +7644,7 @@
         <v>2011</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
@@ -7663,7 +7654,7 @@
         <v>42</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>36</v>
@@ -7683,19 +7674,19 @@
         <v>39</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R57" s="1">
         <v>21</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T57" s="1">
         <v>42</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>41</v>
@@ -7705,7 +7696,7 @@
         <v>76</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>44</v>
@@ -7716,61 +7707,61 @@
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG57" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="AG57" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D58" s="1">
         <v>2014</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="H58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>56</v>
@@ -7780,76 +7771,76 @@
         <v>5</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="D59" s="1">
         <v>2014</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>36</v>
@@ -7867,7 +7858,7 @@
         <v>39</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R59" s="1">
         <v>61</v>
@@ -7886,36 +7877,36 @@
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AA59" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="AC59" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AD59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>51</v>
@@ -7924,7 +7915,7 @@
         <v>2020</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -7943,7 +7934,7 @@
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>55</v>
@@ -7956,13 +7947,13 @@
         <v>7</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="T60" s="1">
         <v>19</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>41</v>
@@ -7972,13 +7963,13 @@
         <v>76</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AB60" s="1" t="s">
         <v>45</v>
@@ -7995,10 +7986,10 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>51</v>
@@ -8007,7 +7998,7 @@
         <v>2016</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>34</v>
@@ -8017,7 +8008,7 @@
         <v>35</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>87</v>
@@ -8028,26 +8019,26 @@
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="R61" s="1">
         <v>50</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="T61" s="1">
         <v>81</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>41</v>
@@ -8057,17 +8048,17 @@
         <v>76</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AD61" s="1" t="s">
         <v>62</v>
@@ -8080,85 +8071,85 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D62" s="1">
         <v>2016</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R62" s="1">
         <v>26</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB62" s="1" t="s">
         <v>42</v>
@@ -8168,30 +8159,30 @@
         <v>42</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D63" s="1">
         <v>2020</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>34</v>
@@ -8201,7 +8192,7 @@
         <v>86</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>87</v>
@@ -8212,44 +8203,44 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R63" s="1">
         <v>5</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T63" s="1">
         <v>5</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>45</v>
@@ -8259,21 +8250,21 @@
         <v>88</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG63" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>92</v>
@@ -8282,7 +8273,7 @@
         <v>2021</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
@@ -8297,14 +8288,14 @@
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>39</v>
@@ -8319,7 +8310,7 @@
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1" t="s">
@@ -8329,17 +8320,17 @@
         <v>89</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC64" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD64" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1" t="s">
@@ -8349,10 +8340,10 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>51</v>
@@ -8361,7 +8352,7 @@
         <v>2020</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
@@ -8379,31 +8370,31 @@
         <v>37</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R65" s="1">
         <v>52</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="T65" s="1">
         <v>134</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>41</v>
@@ -8413,7 +8404,7 @@
         <v>76</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>44</v>
@@ -8423,25 +8414,25 @@
         <v>45</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>92</v>
@@ -8450,7 +8441,7 @@
         <v>2021</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>34</v>
@@ -8460,10 +8451,10 @@
         <v>35</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
@@ -8480,19 +8471,19 @@
         <v>39</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="R66" s="1">
         <v>11</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="T66" s="1">
         <v>15</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>41</v>
@@ -8523,83 +8514,83 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="1">
         <v>2011</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R67" s="1">
         <v>5</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB67" s="1" t="s">
         <v>42</v>
@@ -8609,13 +8600,13 @@
         <v>42</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -8674,19 +8665,19 @@
         <v>76</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AB68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AD68" s="1" t="s">
         <v>79</v>
@@ -8701,19 +8692,19 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D69" s="1">
         <v>2019</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
@@ -8723,29 +8714,29 @@
         <v>35</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R69" s="1">
         <v>8</v>
@@ -8763,110 +8754,110 @@
         <v>76</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AB69" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D70" s="1">
         <v>2017</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R70" s="1">
         <v>31</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T70" s="1">
         <v>85</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB70" s="1" t="s">
         <v>42</v>
@@ -8876,13 +8867,13 @@
         <v>42</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -8906,19 +8897,19 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
@@ -8933,7 +8924,7 @@
         <v>59</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T71" s="1">
         <v>11</v>
@@ -8943,13 +8934,13 @@
         <v>42</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>44</v>
@@ -8959,7 +8950,7 @@
         <v>42</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AD71" s="1" t="s">
         <v>88</v>
@@ -8969,15 +8960,15 @@
         <v>80</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="72" spans="1:33">
       <c r="A72" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>51</v>
@@ -8986,7 +8977,7 @@
         <v>2020</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>34</v>
@@ -8996,29 +8987,29 @@
         <v>35</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R72" s="1">
         <v>59</v>
@@ -9036,48 +9027,48 @@
         <v>94</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AB72" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD72" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" spans="1:33">
       <c r="A73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D73" s="1">
         <v>2020</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
@@ -9087,10 +9078,10 @@
         <v>35</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
@@ -9098,14 +9089,14 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R73" s="1">
         <v>66</v>
@@ -9123,7 +9114,7 @@
         <v>76</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>77</v>
@@ -9141,15 +9132,15 @@
         <v>80</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:33">
       <c r="A74" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>51</v>
@@ -9158,7 +9149,7 @@
         <v>2018</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
@@ -9168,7 +9159,7 @@
         <v>42</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>53</v>
@@ -9178,19 +9169,19 @@
         <v>37</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="R74" s="3">
         <v>9</v>
@@ -9204,25 +9195,25 @@
         <v>41</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB74" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD74" s="1" t="s">
         <v>47</v>
@@ -9232,15 +9223,15 @@
         <v>80</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>92</v>
@@ -9249,7 +9240,7 @@
         <v>2020</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
@@ -9259,7 +9250,7 @@
         <v>35</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>36</v>
@@ -9270,22 +9261,22 @@
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="R75" s="3">
         <v>38</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T75" s="3">
         <v>67</v>
@@ -9303,13 +9294,13 @@
         <v>44</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB75" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD75" s="1" t="s">
         <v>96</v>
@@ -9322,19 +9313,19 @@
     </row>
     <row r="76" spans="1:33">
       <c r="A76" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D76" s="1">
         <v>2016</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>34</v>
@@ -9344,7 +9335,7 @@
         <v>42</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>36</v>
@@ -9354,19 +9345,19 @@
         <v>37</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R76" s="1">
         <v>49</v>
@@ -9384,29 +9375,29 @@
         <v>94</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AD76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -9490,30 +9481,30 @@
     </row>
     <row r="78" spans="1:33">
       <c r="A78" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="1">
         <v>2020</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
@@ -9525,66 +9516,66 @@
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>59</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T78" s="1">
         <v>2300000</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AB78" s="3" t="s">
         <v>78</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AD78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:33">
       <c r="A79" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>32</v>
@@ -9593,7 +9584,7 @@
         <v>2012</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
@@ -9603,7 +9594,7 @@
         <v>35</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>36</v>
@@ -9623,7 +9614,7 @@
         <v>39</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="R79" s="1">
         <v>70</v>
@@ -9641,19 +9632,19 @@
         <v>76</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB79" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD79" s="1" t="s">
         <v>47</v>
@@ -9663,10 +9654,11 @@
         <v>42</v>
       </c>
       <c r="AG79" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG79">
     <sortCondition ref="B2:B79"/>
     <sortCondition ref="D2:D79"/>

--- a/data/MA_Neurobiology_Survey_final_clean.xlsx
+++ b/data/MA_Neurobiology_Survey_final_clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\lnCVR project (10+ reanalyses)\AnimalScience_lnCVR\AnimalScience_lnCVR\proposal\survey\survey_neurobiology_MA-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB795EA6-F37C-4DE4-8FC2-2C7F0080C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30889F03-3D4E-4A7E-919B-7FABB99AB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="606">
   <si>
     <t>Paper's title</t>
   </si>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>10.1038/jcbfm.2010.184</t>
-  </si>
-  <si>
-    <t>"For each individual comparison, we calculate a normalised effect size [normalised mean difference)  as the percentage improvement (?€??????€?????+?€??????€????? sign) or worsening (?€??????€?????2?€??????€????? sign) of outcome in the treatment group... "</t>
   </si>
   <si>
     <t>SI: "21 papers covering 42 experimental comparisons met the inclusion criteria"</t>
@@ -1278,9 +1275,6 @@
     <t>10.1016/j.neubiorev.2018.07.016</t>
   </si>
   <si>
-    <t>percentage change</t>
-  </si>
-  <si>
     <t>Systematic review and meta-analysis: effects of maternal separation on anxiety-like behavior in rodents</t>
   </si>
   <si>
@@ -1463,10 +1457,6 @@
     <t>Eighty seven experiments (27 studies) in which immobility was scored for the entire 6 min session were identified (Table 2).</t>
   </si>
   <si>
-    <t>Studies comparing one control group to different dosage groups were analyzed as
-two or more experiments.</t>
-  </si>
-  <si>
     <t>Comprehensive gene expression meta- analysis identifies signature genes that distinguish microglia from peripheral monocytes/macrophages in health and glioma</t>
   </si>
   <si>
@@ -1737,9 +1727,6 @@
     <t>standardized mean difference (SMD)</t>
   </si>
   <si>
-    <t>Within each experiment, means and s.d. of infarct sizes in treatment groups were expressed as a percentage of control group outcomes</t>
-  </si>
-  <si>
     <t>Event rates of specific pawedness categories were used as dependent variables (see below)</t>
   </si>
   <si>
@@ -1858,6 +1845,21 @@
   </si>
   <si>
     <t>Annals of Neurology</t>
+  </si>
+  <si>
+    <t>Studies comparing one control group to different dosage groups were analyzed as two or more experiments.</t>
+  </si>
+  <si>
+    <t>normalised effect size [normalised mean difference</t>
+  </si>
+  <si>
+    <t>means and s.d. of infarct sizes in treatment groups were expressed as a percentage of control group outcomes</t>
+  </si>
+  <si>
+    <t>normalised effect size normalised mean difference as the percentage improvement of outcome in the treatment group.</t>
+  </si>
+  <si>
+    <t>Normalised mean difference</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2020,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2198,6 +2200,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2359,7 +2373,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2370,6 +2384,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2727,9 +2744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2740,8 +2757,8 @@
     <col min="5" max="5" width="8.81640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="2"/>
+    <col min="8" max="8" width="35.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" style="2" customWidth="1"/>
     <col min="10" max="10" width="33.54296875" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.81640625" style="2"/>
     <col min="12" max="12" width="22.81640625" style="2" customWidth="1"/>
@@ -2751,7 +2768,7 @@
     <col min="16" max="16" width="11.36328125" style="2" customWidth="1"/>
     <col min="17" max="23" width="8.81640625" style="2"/>
     <col min="24" max="24" width="23.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.81640625" style="2"/>
+    <col min="25" max="25" width="19.453125" style="2" customWidth="1"/>
     <col min="26" max="26" width="16.1796875" style="2" customWidth="1"/>
     <col min="27" max="27" width="8.81640625" style="2"/>
     <col min="28" max="28" width="19.1796875" style="2" customWidth="1"/>
@@ -2779,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2857,18 +2874,18 @@
         <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -2877,7 +2894,7 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
@@ -2887,7 +2904,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
@@ -2898,7 +2915,7 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
@@ -2909,13 +2926,13 @@
         <v>32</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T2" s="1">
         <v>53</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>41</v>
@@ -2925,13 +2942,13 @@
         <v>76</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>45</v>
@@ -2948,10 +2965,10 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2960,7 +2977,7 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
@@ -2970,7 +2987,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>36</v>
@@ -2981,26 +2998,26 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="R3" s="1">
         <v>14</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T3" s="1">
         <v>19</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>41</v>
@@ -3010,56 +3027,56 @@
         <v>76</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D4" s="1">
         <v>2013</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>109</v>
+        <v>605</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>602</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
@@ -3095,7 +3112,7 @@
         <v>76</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>44</v>
@@ -3110,10 +3127,10 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -3201,19 +3218,19 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1">
         <v>2017</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -3223,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>53</v>
@@ -3234,7 +3251,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="3" t="s">
@@ -3245,13 +3262,13 @@
         <v>7</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T6" s="3">
         <v>9</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>41</v>
@@ -3265,13 +3282,13 @@
         <v>44</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>88</v>
@@ -3338,7 +3355,7 @@
         <v>94</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>95</v>
@@ -3359,10 +3376,10 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
@@ -3371,17 +3388,17 @@
         <v>2016</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>53</v>
@@ -3391,19 +3408,19 @@
         <v>37</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R8" s="1">
         <v>19</v>
@@ -3421,20 +3438,20 @@
         <v>42</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
@@ -3444,19 +3461,19 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D9" s="1">
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -3466,39 +3483,39 @@
         <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="R9" s="1">
         <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="T9" s="3">
         <v>14</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>41</v>
@@ -3508,39 +3525,39 @@
         <v>42</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>51</v>
@@ -3549,7 +3566,7 @@
         <v>2018</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -3559,25 +3576,25 @@
         <v>35</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>39</v>
@@ -3587,13 +3604,13 @@
         <v>90</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T10" s="1">
         <v>1009</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>41</v>
@@ -3608,30 +3625,30 @@
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>51</v>
@@ -3640,7 +3657,7 @@
         <v>2019</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -3650,10 +3667,10 @@
         <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
@@ -3661,7 +3678,7 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
@@ -3693,22 +3710,22 @@
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>73</v>
@@ -3717,7 +3734,7 @@
         <v>2020</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -3727,31 +3744,31 @@
         <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="R12" s="1">
         <v>120</v>
@@ -3761,7 +3778,7 @@
         <v>232</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>41</v>
@@ -3771,19 +3788,19 @@
         <v>42</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD12" s="1" t="s">
         <v>47</v>
@@ -3796,10 +3813,10 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
@@ -3808,7 +3825,7 @@
         <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
@@ -3818,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
@@ -3836,19 +3853,19 @@
         <v>39</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R13" s="1">
         <v>8</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="T13" s="1">
         <v>10</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>41</v>
@@ -3879,19 +3896,19 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D14" s="1">
         <v>2015</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>34</v>
@@ -3901,7 +3918,7 @@
         <v>35</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
@@ -3912,26 +3929,26 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="R14" s="1">
         <v>12</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T14" s="1">
         <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>41</v>
@@ -3941,19 +3958,19 @@
         <v>42</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD14" s="1" t="s">
         <v>47</v>
@@ -3963,15 +3980,15 @@
         <v>80</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>51</v>
@@ -3980,13 +3997,13 @@
         <v>2019</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>42</v>
@@ -3998,7 +4015,7 @@
         <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>42</v>
@@ -4013,7 +4030,7 @@
         <v>69</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>69</v>
@@ -4064,15 +4081,15 @@
         <v>42</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
@@ -4081,7 +4098,7 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -4091,10 +4108,10 @@
         <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
@@ -4102,26 +4119,26 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R16" s="3">
         <v>29</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T16" s="3">
         <v>183</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>41</v>
@@ -4131,7 +4148,7 @@
         <v>76</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>77</v>
@@ -4141,7 +4158,7 @@
         <v>45</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD16" s="1" t="s">
         <v>47</v>
@@ -4151,24 +4168,24 @@
         <v>80</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D17" s="1">
         <v>2019</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -4178,10 +4195,10 @@
         <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
@@ -4189,14 +4206,14 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="R17" s="1">
         <v>337</v>
@@ -4214,17 +4231,17 @@
         <v>76</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>96</v>
@@ -4234,15 +4251,15 @@
         <v>42</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
@@ -4251,17 +4268,17 @@
         <v>2013</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>36</v>
@@ -4272,7 +4289,7 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
@@ -4283,13 +4300,13 @@
         <v>32</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="T18" s="1">
         <v>56</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>41</v>
@@ -4299,7 +4316,7 @@
         <v>94</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>44</v>
@@ -4310,123 +4327,123 @@
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="D19" s="1">
         <v>2020</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R19" s="1">
         <v>15</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -4435,7 +4452,7 @@
         <v>2016</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>34</v>
@@ -4454,28 +4471,28 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R20" s="1">
         <v>8</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="T20" s="1">
         <v>29</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>41</v>
@@ -4486,16 +4503,16 @@
       </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="AC20" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AD20" s="1" t="s">
         <v>47</v>
@@ -4505,15 +4522,15 @@
         <v>42</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -4522,7 +4539,7 @@
         <v>2016</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
@@ -4541,26 +4558,26 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R21" s="1">
         <v>60</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="T21" s="1">
         <v>216</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>41</v>
@@ -4588,15 +4605,15 @@
         <v>80</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>84</v>
@@ -4605,20 +4622,20 @@
         <v>2014</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>516</v>
+        <v>605</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>513</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
@@ -4635,19 +4652,19 @@
         <v>39</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="R22" s="3">
         <v>35</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="T22" s="1">
         <v>107</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>41</v>
@@ -4658,16 +4675,16 @@
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD22" s="1" t="s">
         <v>96</v>
@@ -4677,15 +4694,15 @@
         <v>42</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -4694,7 +4711,7 @@
         <v>2015</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>34</v>
@@ -4704,7 +4721,7 @@
         <v>86</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>87</v>
@@ -4739,13 +4756,13 @@
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1" t="s">
@@ -4759,19 +4776,19 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D24" s="1">
         <v>2011</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
@@ -4782,7 +4799,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
@@ -4793,19 +4810,19 @@
         <v>42</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="R24" s="1">
         <v>88</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T24" s="1">
         <v>151</v>
@@ -4819,51 +4836,51 @@
         <v>76</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>88</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D25" s="1">
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -4947,10 +4964,10 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
@@ -4959,10 +4976,10 @@
         <v>2014</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>69</v>
@@ -4992,7 +5009,7 @@
         <v>69</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>69</v>
@@ -5048,10 +5065,10 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>66</v>
@@ -5060,7 +5077,7 @@
         <v>2012</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
@@ -5082,7 +5099,7 @@
         <v>75</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>39</v>
@@ -5092,13 +5109,13 @@
         <v>10</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T27" s="1">
         <v>14</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>41</v>
@@ -5108,37 +5125,37 @@
         <v>42</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>51</v>
@@ -5147,7 +5164,7 @@
         <v>2019</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>68</v>
@@ -5157,7 +5174,7 @@
         <v>42</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>42</v>
@@ -5181,7 +5198,7 @@
         <v>56</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="R28" s="3">
         <v>61</v>
@@ -5232,19 +5249,19 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="D29" s="1">
         <v>2016</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
@@ -5270,19 +5287,19 @@
         <v>39</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R29" s="3">
         <v>16</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T29" s="3">
         <v>29</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>41</v>
@@ -5292,26 +5309,26 @@
         <v>76</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Z29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AC29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG29" s="1"/>
     </row>
@@ -5408,19 +5425,19 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1">
         <v>2020</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
@@ -5441,20 +5458,20 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R31" s="1">
         <v>414</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T31" s="1">
         <v>603</v>
@@ -5468,19 +5485,19 @@
         <v>76</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA31" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AA31" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AC31" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>96</v>
@@ -5490,24 +5507,24 @@
         <v>80</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D32" s="1">
         <v>2020</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
@@ -5517,7 +5534,7 @@
         <v>35</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>87</v>
@@ -5539,13 +5556,13 @@
         <v>47</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="T32" s="1">
         <v>95</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>41</v>
@@ -5560,10 +5577,10 @@
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AD32" s="1" t="s">
         <v>96</v>
@@ -5651,10 +5668,10 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>51</v>
@@ -5663,7 +5680,7 @@
         <v>2018</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>34</v>
@@ -5673,29 +5690,29 @@
         <v>35</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="R34" s="1">
         <v>50</v>
@@ -5713,7 +5730,7 @@
         <v>94</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Z34" s="3" t="s">
         <v>95</v>
@@ -5723,137 +5740,137 @@
         <v>45</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D35" s="1">
         <v>2021</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>87</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>104</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="R35" s="3">
         <v>31</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AF35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG35" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D36" s="1">
         <v>2018</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -5879,7 +5896,7 @@
         <v>56</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R36" s="1">
         <v>15</v>
@@ -5893,7 +5910,7 @@
         <v>42</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>42</v>
@@ -5915,15 +5932,15 @@
         <v>80</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>51</v>
@@ -5932,10 +5949,10 @@
         <v>2018</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>69</v>
@@ -5963,7 +5980,7 @@
         <v>69</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>69</v>
@@ -6019,10 +6036,10 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -6031,7 +6048,7 @@
         <v>2015</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
@@ -6050,14 +6067,14 @@
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="R38" s="1">
         <v>27</v>
@@ -6075,37 +6092,37 @@
         <v>76</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Z38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AA38" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AC38" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AD38" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>51</v>
@@ -6114,7 +6131,7 @@
         <v>2021</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
@@ -6124,7 +6141,7 @@
         <v>35</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
@@ -6134,7 +6151,7 @@
         <v>42</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>38</v>
@@ -6144,19 +6161,19 @@
         <v>39</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R39" s="1">
         <v>6</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T39" s="1">
         <v>17</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>41</v>
@@ -6184,15 +6201,15 @@
         <v>80</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>51</v>
@@ -6201,7 +6218,7 @@
         <v>2020</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
@@ -6211,10 +6228,10 @@
         <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
@@ -6229,7 +6246,7 @@
         <v>39</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R40" s="1">
         <v>71</v>
@@ -6252,47 +6269,47 @@
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D41" s="1">
         <v>2016</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>87</v>
@@ -6302,7 +6319,7 @@
         <v>37</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>38</v>
@@ -6328,7 +6345,7 @@
         <v>94</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>95</v>
@@ -6349,10 +6366,10 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>51</v>
@@ -6361,13 +6378,13 @@
         <v>2021</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>42</v>
@@ -6386,7 +6403,7 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
@@ -6424,10 +6441,10 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
@@ -6436,7 +6453,7 @@
         <v>2019</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>34</v>
@@ -6455,7 +6472,7 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>55</v>
@@ -6464,7 +6481,7 @@
         <v>39</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="R43" s="1">
         <v>22</v>
@@ -6482,19 +6499,19 @@
         <v>76</v>
       </c>
       <c r="Y43" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA43" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AB43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="AD43" s="1" t="s">
         <v>47</v>
@@ -6507,61 +6524,61 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="1">
         <v>2020</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="R44" s="3">
         <v>4</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>59</v>
@@ -6571,146 +6588,146 @@
         <v>42</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D45" s="1">
         <v>2017</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>51</v>
@@ -6719,7 +6736,7 @@
         <v>2021</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>34</v>
@@ -6729,7 +6746,7 @@
         <v>35</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>87</v>
@@ -6747,7 +6764,7 @@
         <v>39</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="R46" s="1">
         <v>11</v>
@@ -6780,16 +6797,16 @@
       </c>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -6798,7 +6815,7 @@
         <v>2011</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -6812,16 +6829,16 @@
         <v>87</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
@@ -6844,7 +6861,7 @@
         <v>76</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Z47" s="1" t="s">
         <v>44</v>
@@ -6865,19 +6882,19 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1">
         <v>2020</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -6887,7 +6904,7 @@
         <v>42</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>36</v>
@@ -6897,17 +6914,17 @@
         <v>37</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="R48" s="1">
         <v>43</v>
@@ -6931,33 +6948,33 @@
         <v>44</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD48" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>51</v>
@@ -6966,7 +6983,7 @@
         <v>2021</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -6976,7 +6993,7 @@
         <v>42</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>87</v>
@@ -6987,14 +7004,14 @@
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="R49" s="1">
         <v>23</v>
@@ -7030,15 +7047,15 @@
         <v>80</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -7047,7 +7064,7 @@
         <v>2021</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -7057,7 +7074,7 @@
         <v>42</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>87</v>
@@ -7068,11 +7085,11 @@
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
@@ -7087,54 +7104,54 @@
         <v>42</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="X50" s="3" t="s">
         <v>76</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD50" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1">
         <v>2018</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -7144,7 +7161,7 @@
         <v>35</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>36</v>
@@ -7162,7 +7179,7 @@
         <v>39</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R51" s="3">
         <v>8</v>
@@ -7177,40 +7194,40 @@
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD51" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -7219,7 +7236,7 @@
         <v>2019</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -7238,7 +7255,7 @@
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>55</v>
@@ -7247,7 +7264,7 @@
         <v>39</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="R52" s="1">
         <v>9</v>
@@ -7261,7 +7278,7 @@
         <v>41</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>42</v>
@@ -7288,10 +7305,10 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>51</v>
@@ -7300,7 +7317,7 @@
         <v>2021</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -7322,13 +7339,13 @@
         <v>38</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R53" s="1">
         <v>21</v>
@@ -7346,16 +7363,16 @@
         <v>76</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Z53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB53" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="AC53" s="4"/>
       <c r="AD53" s="1" t="s">
@@ -7369,37 +7386,37 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1">
         <v>2016</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>42</v>
@@ -7409,13 +7426,13 @@
         <v>42</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>59</v>
@@ -7425,51 +7442,51 @@
         <v>59</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>51</v>
@@ -7478,7 +7495,7 @@
         <v>2020</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -7488,10 +7505,10 @@
         <v>35</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
@@ -7506,7 +7523,7 @@
         <v>39</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="R55" s="1">
         <v>20</v>
@@ -7529,10 +7546,10 @@
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AD55" s="1" t="s">
         <v>47</v>
@@ -7542,12 +7559,12 @@
         <v>80</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>107</v>
@@ -7559,17 +7576,17 @@
         <v>2013</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>564</v>
+        <v>605</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>603</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>36</v>
@@ -7584,10 +7601,10 @@
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>59</v>
@@ -7601,33 +7618,33 @@
         <v>42</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -7651,10 +7668,10 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>109</v>
+        <v>605</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>604</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>36</v>
@@ -7674,19 +7691,19 @@
         <v>39</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R57" s="1">
         <v>21</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T57" s="1">
         <v>42</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>41</v>
@@ -7696,7 +7713,7 @@
         <v>76</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>44</v>
@@ -7707,61 +7724,61 @@
       </c>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG57" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="AG57" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D58" s="1">
         <v>2014</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="H58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>56</v>
@@ -7771,66 +7788,66 @@
         <v>5</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X58" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D59" s="1">
         <v>2014</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -7858,7 +7875,7 @@
         <v>39</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R59" s="1">
         <v>61</v>
@@ -7877,36 +7894,36 @@
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AA59" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="AC59" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AD59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>51</v>
@@ -7915,7 +7932,7 @@
         <v>2020</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -7934,7 +7951,7 @@
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>55</v>
@@ -7947,13 +7964,13 @@
         <v>7</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="T60" s="1">
         <v>19</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>41</v>
@@ -7963,13 +7980,13 @@
         <v>76</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA60" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AB60" s="1" t="s">
         <v>45</v>
@@ -7986,10 +8003,10 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>51</v>
@@ -7998,7 +8015,7 @@
         <v>2016</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>34</v>
@@ -8008,7 +8025,7 @@
         <v>35</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>87</v>
@@ -8019,26 +8036,26 @@
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="R61" s="1">
         <v>50</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="T61" s="1">
         <v>81</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>41</v>
@@ -8048,17 +8065,17 @@
         <v>76</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AD61" s="1" t="s">
         <v>62</v>
@@ -8071,85 +8088,85 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D62" s="1">
         <v>2016</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R62" s="1">
         <v>26</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB62" s="1" t="s">
         <v>42</v>
@@ -8159,30 +8176,30 @@
         <v>42</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D63" s="1">
         <v>2020</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>34</v>
@@ -8192,7 +8209,7 @@
         <v>86</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>87</v>
@@ -8203,44 +8220,44 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R63" s="1">
         <v>5</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T63" s="1">
         <v>5</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>45</v>
@@ -8250,21 +8267,21 @@
         <v>88</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF63" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG63" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>92</v>
@@ -8273,7 +8290,7 @@
         <v>2021</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
@@ -8292,10 +8309,10 @@
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>39</v>
@@ -8310,7 +8327,7 @@
       </c>
       <c r="U64" s="1"/>
       <c r="V64" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1" t="s">
@@ -8320,17 +8337,17 @@
         <v>89</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD64" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1" t="s">
@@ -8340,10 +8357,10 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>51</v>
@@ -8352,7 +8369,7 @@
         <v>2020</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
@@ -8370,31 +8387,31 @@
         <v>37</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R65" s="1">
         <v>52</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T65" s="1">
         <v>134</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V65" s="1" t="s">
         <v>41</v>
@@ -8404,7 +8421,7 @@
         <v>76</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>44</v>
@@ -8414,25 +8431,25 @@
         <v>45</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>92</v>
@@ -8441,7 +8458,7 @@
         <v>2021</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>34</v>
@@ -8451,10 +8468,10 @@
         <v>35</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
@@ -8471,19 +8488,19 @@
         <v>39</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="R66" s="1">
         <v>11</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="T66" s="1">
         <v>15</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>41</v>
@@ -8514,83 +8531,83 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="1">
         <v>2011</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R67" s="1">
         <v>5</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB67" s="1" t="s">
         <v>42</v>
@@ -8600,13 +8617,13 @@
         <v>42</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -8665,19 +8682,19 @@
         <v>76</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AB68" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AD68" s="1" t="s">
         <v>79</v>
@@ -8692,19 +8709,19 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D69" s="1">
         <v>2019</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
@@ -8714,29 +8731,29 @@
         <v>35</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R69" s="1">
         <v>8</v>
@@ -8754,110 +8771,110 @@
         <v>76</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA69" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AB69" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:33">
       <c r="A70" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D70" s="1">
         <v>2017</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R70" s="1">
         <v>31</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T70" s="1">
         <v>85</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB70" s="1" t="s">
         <v>42</v>
@@ -8867,13 +8884,13 @@
         <v>42</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG70" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -8940,7 +8957,7 @@
         <v>76</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>44</v>
@@ -8950,7 +8967,7 @@
         <v>42</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AD71" s="1" t="s">
         <v>88</v>
@@ -8960,15 +8977,15 @@
         <v>80</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:33">
       <c r="A72" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>51</v>
@@ -8977,7 +8994,7 @@
         <v>2020</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>34</v>
@@ -8987,29 +9004,29 @@
         <v>35</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R72" s="1">
         <v>59</v>
@@ -9026,49 +9043,49 @@
       <c r="X72" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>474</v>
+      <c r="Y72" s="6" t="s">
+        <v>601</v>
       </c>
       <c r="Z72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AB72" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD72" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AG72" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:33">
       <c r="A73" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D73" s="1">
         <v>2020</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
@@ -9078,10 +9095,10 @@
         <v>35</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
@@ -9089,14 +9106,14 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R73" s="1">
         <v>66</v>
@@ -9114,7 +9131,7 @@
         <v>76</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>77</v>
@@ -9132,15 +9149,15 @@
         <v>80</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:33">
       <c r="A74" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>51</v>
@@ -9149,17 +9166,17 @@
         <v>2018</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>413</v>
+        <v>605</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>53</v>
@@ -9169,19 +9186,19 @@
         <v>37</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R74" s="3">
         <v>9</v>
@@ -9195,25 +9212,25 @@
         <v>41</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB74" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD74" s="1" t="s">
         <v>47</v>
@@ -9223,15 +9240,15 @@
         <v>80</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:33">
       <c r="A75" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>92</v>
@@ -9240,7 +9257,7 @@
         <v>2020</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
@@ -9250,7 +9267,7 @@
         <v>35</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>36</v>
@@ -9261,22 +9278,22 @@
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="R75" s="3">
         <v>38</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T75" s="3">
         <v>67</v>
@@ -9294,13 +9311,13 @@
         <v>44</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB75" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD75" s="1" t="s">
         <v>96</v>
@@ -9313,29 +9330,29 @@
     </row>
     <row r="76" spans="1:33">
       <c r="A76" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D76" s="1">
         <v>2016</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>541</v>
+        <v>605</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>36</v>
@@ -9345,19 +9362,19 @@
         <v>37</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>38</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R76" s="1">
         <v>49</v>
@@ -9374,30 +9391,30 @@
       <c r="X76" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Y76" s="1" t="s">
-        <v>424</v>
+      <c r="Y76" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AD76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG76" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -9481,30 +9498,30 @@
     </row>
     <row r="78" spans="1:33">
       <c r="A78" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D78" s="1">
         <v>2020</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
@@ -9516,66 +9533,66 @@
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>59</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="T78" s="1">
         <v>2300000</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="X78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AB78" s="3" t="s">
         <v>78</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AD78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG78" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:33">
       <c r="A79" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>32</v>
@@ -9584,7 +9601,7 @@
         <v>2012</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
@@ -9594,7 +9611,7 @@
         <v>35</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>36</v>
@@ -9614,7 +9631,7 @@
         <v>39</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="R79" s="1">
         <v>70</v>
@@ -9632,19 +9649,19 @@
         <v>76</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AB79" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD79" s="1" t="s">
         <v>47</v>
@@ -9654,11 +9671,10 @@
         <v>42</v>
       </c>
       <c r="AG79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG79">
     <sortCondition ref="B2:B79"/>
     <sortCondition ref="D2:D79"/>
